--- a/biology/Histoire de la zoologie et de la botanique/Georg_Kükenthal/Georg_Kükenthal.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georg_Kükenthal/Georg_Kükenthal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georg_K%C3%BCkenthal</t>
+          <t>Georg_Kükenthal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Kükenthal, né le 30 mars 1864 à Weißenfels et mort le 20 octobre 1955 à Cobourg, est un pasteur allemand qui fut également un botaniste réputé, notamment dans l'étude du genre Carex. Son abréviation botanique est Kük., anciennement Kükenth.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georg_K%C3%BCkenthal</t>
+          <t>Georg_Kükenthal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Kükenthal naît dans la famille d'un fonctionnaire des impôts du royaume de Prusse. Son frère, Willy Kükenthal, deviendra zoologiste. Il quitte le lycée de Zeitz en 1882. Après son Abitur, il passe une année de volontariat au 125e régiment d'infanterie (de).
 Ensuite Kükenthal étudie la théologie à Tübingen et à l'université de Halle auprès de Willibald Beyschlag (de). Il fait partie des associations d'étudiants Ghibellinia à Tübingen, et Pomerania à Halle.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Georg_K%C3%BCkenthal</t>
+          <t>Georg_Kükenthal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Kükenthal était membre-correspondant depuis 1897 de la Société botanique de Ratisbonne. En 1912, il est élu directeur de l'Académie internationale de géographie botanique. Il reçoit en 1913 le titre de docteur honoris causa de l'université de Breslau en hommage à ses travaux concernant les Cyperaceae. Enfin, il est nommé membre la fameuse Leopoldina, l'année où il fête ses quatre-vingt-dix ans.
 Le pasteur Kükenthal était titulaire de la croix de chevalier de l'Ordre du Mérite de la République fédérale d'Allemagne.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Georg_K%C3%BCkenthal</t>
+          <t>Georg_Kükenthal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1936. Cyperaceae-Scirpoideae-Cypereae, etc., in: Das Pflanzenreich. Hft. 10
 1913. Kükenthal, G. Cyperaceae yunnanenses maireanae
